--- a/ComcastCRMGUIFramework/testData/TestScriptData.xlsx
+++ b/ComcastCRMGUIFramework/testData/TestScriptData.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
-    <sheet name="DataProvider" sheetId="3" r:id="rId3"/>
+    <sheet name="Leads" sheetId="4" r:id="rId3"/>
+    <sheet name="DataProvider" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -144,6 +145,18 @@
   </si>
   <si>
     <t>Huesen</t>
+  </si>
+  <si>
+    <t>Create Lead</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>opportunityName</t>
+  </si>
+  <si>
+    <t>new FF opprotunity</t>
   </si>
 </sst>
 </file>
@@ -501,7 +514,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,10 +782,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
